--- a/Tabela pytań.xlsx
+++ b/Tabela pytań.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4547bd4dd1ae952a/Codecool/Projekty/WEB/freestyle-javascript-game-javascript-prooffek/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{A6C0902E-A6AC-D149-B4F0-7FD67DAD521C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{7528530F-DCD1-4E28-A933-6D641D8503A4}"/>
+  <xr:revisionPtr revIDLastSave="175" documentId="8_{A6C0902E-A6AC-D149-B4F0-7FD67DAD521C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{770030DB-5C78-4B42-99FF-C4BD29FF6459}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="500" windowWidth="32660" windowHeight="20500" xr2:uid="{B6252BE0-4127-3847-9289-F320FF2AAAEA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="106">
   <si>
     <t>l.p.</t>
   </si>
@@ -145,6 +145,21 @@
   </si>
   <si>
     <t>6.</t>
+  </si>
+  <si>
+    <t>Jak poprawnie zainicjować pętlę FOR</t>
+  </si>
+  <si>
+    <t>for (i=0; i &lt;= 5; i++)</t>
+  </si>
+  <si>
+    <t>for (i= 0 to 5)</t>
+  </si>
+  <si>
+    <t>for (i &lt;=5; i++)</t>
+  </si>
+  <si>
+    <t>for (i = 0; i &lt;=5)</t>
   </si>
   <si>
     <t>7.</t>
@@ -333,9 +348,39 @@
     <t>11.</t>
   </si>
   <si>
+    <t>Jak "zaokrąglić" liczbe 7.25 do najbliższej całkowitej ?</t>
+  </si>
+  <si>
+    <t>Math.round(7.25)</t>
+  </si>
+  <si>
+    <t>rnd(7.25)</t>
+  </si>
+  <si>
+    <t>round(7.25)</t>
+  </si>
+  <si>
+    <t>Math.rnd(7.25)</t>
+  </si>
+  <si>
     <t>12.</t>
   </si>
   <si>
+    <t>Jak wyznaczyc wiekszą wartość z dwóch liczb x i y ?</t>
+  </si>
+  <si>
+    <t>Math.max(x,y)</t>
+  </si>
+  <si>
+    <t>max(x,y)</t>
+  </si>
+  <si>
+    <t>Math.ceil(x,y)</t>
+  </si>
+  <si>
+    <t>top(x,y)</t>
+  </si>
+  <si>
     <t>13.</t>
   </si>
   <si>
@@ -399,7 +444,28 @@
     <t>17.</t>
   </si>
   <si>
+    <t>Co będzie wynikiem funkcji typeof(NaN)?</t>
+  </si>
+  <si>
+    <t>"number"</t>
+  </si>
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>undefined</t>
+  </si>
+  <si>
     <t>18.</t>
+  </si>
+  <si>
+    <t>Ile to jest "2" - true?</t>
+  </si>
+  <si>
+    <t>"2-true"</t>
+  </si>
+  <si>
+    <t>syntaxError</t>
   </si>
 </sst>
 </file>
@@ -877,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB0EE24E-A300-B54F-862A-A003541D515C}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="C11" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
@@ -1037,247 +1103,297 @@
       <c r="B7" s="7">
         <v>1</v>
       </c>
-      <c r="C7" s="10"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="24">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5">
         <v>2</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="24">
       <c r="A9" s="2" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B9" s="5">
         <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="24">
       <c r="A10" s="2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B10" s="5">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="24">
       <c r="A11" s="2" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B11" s="5">
         <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D11" s="6">
         <v>1</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="24">
       <c r="A12" s="2" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B12" s="5">
         <v>2</v>
       </c>
-      <c r="C12" s="11"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
+      <c r="C12" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="13" spans="1:7" ht="24">
       <c r="A13" s="2" t="s">
-        <v>61</v>
+        <v>71</v>
       </c>
       <c r="B13" s="5">
         <v>2</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
+      <c r="C13" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:7" ht="24">
       <c r="A14" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="B14" s="3">
         <v>3</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="F14" s="4">
         <v>14</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="24">
       <c r="A15" s="2" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B15" s="3">
         <v>3</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>68</v>
+        <v>83</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>71</v>
+        <v>86</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="24">
       <c r="A16" s="2" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B16" s="3">
         <v>3</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="D16" s="4" t="s">
-        <v>66</v>
+        <v>81</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="24">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>91</v>
       </c>
       <c r="B17" s="3">
         <v>3</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="24">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="23.25">
       <c r="A18" s="2" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="B18" s="3">
         <v>3</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:7" ht="24">
+      <c r="C18" t="s">
+        <v>98</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="23.25">
       <c r="A19" s="2" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="B19" s="7">
         <v>3</v>
       </c>
-      <c r="C19" s="12"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
+      <c r="C19" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="G19" s="4">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
